--- a/inputs/AddictO_Upper level.xlsx
+++ b/inputs/AddictO_Upper level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C7E9E4-22AE-4F6F-B78C-AE7332860D9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF61089-86A1-4D81-89F4-6F95970423AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,19 +72,19 @@
     <t>human being;population;human behaviour;product;environmental system;intervention;organisation; research activity</t>
   </si>
   <si>
-    <t>REL 'can study'</t>
-  </si>
-  <si>
-    <t>REL 'can use'</t>
-  </si>
-  <si>
-    <t>REL 'can have agent'</t>
-  </si>
-  <si>
-    <t>REL 'can have member'</t>
-  </si>
-  <si>
-    <t>REL 'can be produced by'</t>
+    <t>REL 'studies'</t>
+  </si>
+  <si>
+    <t>REL 'has agent'</t>
+  </si>
+  <si>
+    <t>REL 'has member'</t>
+  </si>
+  <si>
+    <t>REL 'produced by'</t>
+  </si>
+  <si>
+    <t>REL 'uses'</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,19 +446,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">

--- a/inputs/AddictO_Upper level.xlsx
+++ b/inputs/AddictO_Upper level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF61089-86A1-4D81-89F4-6F95970423AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC0345-0995-4B59-A687-9D0F27470B04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Upper level" sheetId="6" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>product</t>
   </si>
@@ -72,12 +66,6 @@
     <t>human being;population;human behaviour;product;environmental system;intervention;organisation; research activity</t>
   </si>
   <si>
-    <t>REL 'studies'</t>
-  </si>
-  <si>
-    <t>REL 'has agent'</t>
-  </si>
-  <si>
     <t>REL 'has member'</t>
   </si>
   <si>
@@ -85,6 +73,24 @@
   </si>
   <si>
     <t>REL 'uses'</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>environed in</t>
+  </si>
+  <si>
+    <t>enacts</t>
+  </si>
+  <si>
+    <t>member of</t>
   </si>
 </sst>
 </file>
@@ -416,137 +422,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
